--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Cd22</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="H2">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="I2">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="J2">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="N2">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="O2">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P2">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q2">
-        <v>1.975630491750648</v>
+        <v>6.730349734080001</v>
       </c>
       <c r="R2">
-        <v>1.975630491750648</v>
+        <v>40.38209840448</v>
       </c>
       <c r="S2">
-        <v>0.0002875354368581876</v>
+        <v>0.0007445515453970424</v>
       </c>
       <c r="T2">
-        <v>0.0002875354368581876</v>
+        <v>0.0004966860730393817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="H3">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="I3">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="J3">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N3">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="O3">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P3">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q3">
-        <v>780.2621926427154</v>
+        <v>0.03281468291733333</v>
       </c>
       <c r="R3">
-        <v>780.2621926427154</v>
+        <v>0.295332146256</v>
       </c>
       <c r="S3">
-        <v>0.113560218554152</v>
+        <v>3.630156506444045E-06</v>
       </c>
       <c r="T3">
-        <v>0.113560218554152</v>
+        <v>3.632484931736768E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="H4">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="I4">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="J4">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="N4">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="O4">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P4">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q4">
-        <v>1294.318303454156</v>
+        <v>1440.835898601552</v>
       </c>
       <c r="R4">
-        <v>1294.318303454156</v>
+        <v>12967.52308741397</v>
       </c>
       <c r="S4">
-        <v>0.1883765108765142</v>
+        <v>0.1593938855116515</v>
       </c>
       <c r="T4">
-        <v>0.1883765108765142</v>
+        <v>0.1594961226339001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="H5">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="I5">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="J5">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.533160921417418</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="N5">
-        <v>0.533160921417418</v>
+        <v>1006.095245</v>
       </c>
       <c r="O5">
-        <v>0.000992117845251661</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="P5">
-        <v>0.000992117845251661</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="Q5">
-        <v>2.062234369374187</v>
+        <v>2042.609444367493</v>
       </c>
       <c r="R5">
-        <v>2.062234369374187</v>
+        <v>18383.48499930744</v>
       </c>
       <c r="S5">
-        <v>0.0003001398605548634</v>
+        <v>0.225965674672967</v>
       </c>
       <c r="T5">
-        <v>0.0003001398605548634</v>
+        <v>0.2261106117276812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.917606647925471</v>
+        <v>6.090704</v>
       </c>
       <c r="H6">
-        <v>8.917606647925471</v>
+        <v>18.272112</v>
       </c>
       <c r="I6">
-        <v>0.6974755952719208</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="J6">
-        <v>0.6974755952719208</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.510770739254903</v>
+        <v>1.594178</v>
       </c>
       <c r="N6">
-        <v>0.510770739254903</v>
+        <v>4.782534</v>
       </c>
       <c r="O6">
-        <v>0.0009504536902291754</v>
+        <v>0.002774255236666534</v>
       </c>
       <c r="P6">
-        <v>0.0009504536902291754</v>
+        <v>0.002776034676767823</v>
       </c>
       <c r="Q6">
-        <v>4.554852539945331</v>
+        <v>9.709666321312</v>
       </c>
       <c r="R6">
-        <v>4.554852539945331</v>
+        <v>87.386996891808</v>
       </c>
       <c r="S6">
-        <v>0.000662918253370988</v>
+        <v>0.001074141367158935</v>
       </c>
       <c r="T6">
-        <v>0.000662918253370988</v>
+        <v>0.001074830334128489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.917606647925471</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="H7">
-        <v>8.917606647925471</v>
+        <v>28.738576</v>
       </c>
       <c r="I7">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="J7">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.725524389746</v>
+        <v>1.10502</v>
       </c>
       <c r="N7">
-        <v>201.725524389746</v>
+        <v>2.21004</v>
       </c>
       <c r="O7">
-        <v>0.3753753970897798</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P7">
-        <v>0.3753753970897798</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q7">
-        <v>1798.908877354251</v>
+        <v>10.58556708384</v>
       </c>
       <c r="R7">
-        <v>1798.908877354251</v>
+        <v>63.51340250304001</v>
       </c>
       <c r="S7">
-        <v>0.2618151785356279</v>
+        <v>0.001171038748739629</v>
       </c>
       <c r="T7">
-        <v>0.2618151785356279</v>
+        <v>0.0007811932445567225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.917606647925471</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="H8">
-        <v>8.917606647925471</v>
+        <v>28.738576</v>
       </c>
       <c r="I8">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="J8">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>334.627309836981</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N8">
-        <v>334.627309836981</v>
+        <v>0.016163</v>
       </c>
       <c r="O8">
-        <v>0.6226820313747392</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P8">
-        <v>0.6226820313747392</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q8">
-        <v>2984.074722779678</v>
+        <v>0.0516112893208889</v>
       </c>
       <c r="R8">
-        <v>2984.074722779678</v>
+        <v>0.464501603888</v>
       </c>
       <c r="S8">
-        <v>0.4343055204982251</v>
+        <v>5.709549539338238E-06</v>
       </c>
       <c r="T8">
-        <v>0.4343055204982251</v>
+        <v>5.713211711901281E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.579525333333335</v>
+      </c>
+      <c r="H9">
+        <v>28.738576</v>
+      </c>
+      <c r="I9">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="J9">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>236.563113</v>
+      </c>
+      <c r="N9">
+        <v>709.689339</v>
+      </c>
+      <c r="O9">
+        <v>0.4116770241732021</v>
+      </c>
+      <c r="P9">
+        <v>0.4119410786826471</v>
+      </c>
+      <c r="Q9">
+        <v>2266.162333915696</v>
+      </c>
+      <c r="R9">
+        <v>20395.46100524126</v>
+      </c>
+      <c r="S9">
+        <v>0.2506964325039107</v>
+      </c>
+      <c r="T9">
+        <v>0.2508572321590223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.579525333333335</v>
+      </c>
+      <c r="H10">
+        <v>28.738576</v>
+      </c>
+      <c r="I10">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="J10">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="N10">
+        <v>1006.095245</v>
+      </c>
+      <c r="O10">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="P10">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="Q10">
+        <v>3212.638295741236</v>
+      </c>
+      <c r="R10">
+        <v>28913.74466167112</v>
+      </c>
+      <c r="S10">
+        <v>0.3554012647788246</v>
+      </c>
+      <c r="T10">
+        <v>0.3556292233509984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.579525333333335</v>
+      </c>
+      <c r="H11">
+        <v>28.738576</v>
+      </c>
+      <c r="I11">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="J11">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.594178</v>
+      </c>
+      <c r="N11">
+        <v>4.782534</v>
+      </c>
+      <c r="O11">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="P11">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="Q11">
+        <v>15.27146853684267</v>
+      </c>
+      <c r="R11">
+        <v>137.443216831584</v>
+      </c>
+      <c r="S11">
+        <v>0.001689421196347798</v>
+      </c>
+      <c r="T11">
+        <v>0.001690504811072578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.917606647925471</v>
-      </c>
-      <c r="H9">
-        <v>8.917606647925471</v>
-      </c>
-      <c r="I9">
-        <v>0.6974755952719208</v>
-      </c>
-      <c r="J9">
-        <v>0.6974755952719208</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="N9">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="O9">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="P9">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="Q9">
-        <v>4.754519377246036</v>
-      </c>
-      <c r="R9">
-        <v>4.754519377246036</v>
-      </c>
-      <c r="S9">
-        <v>0.0006919779846967977</v>
-      </c>
-      <c r="T9">
-        <v>0.0006919779846967977</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.181892</v>
+      </c>
+      <c r="I12">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="J12">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.10502</v>
+      </c>
+      <c r="N12">
+        <v>2.21004</v>
+      </c>
+      <c r="O12">
+        <v>0.001923002024630407</v>
+      </c>
+      <c r="P12">
+        <v>0.00128282364057296</v>
+      </c>
+      <c r="Q12">
+        <v>0.06699809928</v>
+      </c>
+      <c r="R12">
+        <v>0.4019885956800001</v>
+      </c>
+      <c r="S12">
+        <v>7.411730493735964E-06</v>
+      </c>
+      <c r="T12">
+        <v>4.944322976855617E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.181892</v>
+      </c>
+      <c r="I13">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="J13">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.005387666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.016163</v>
+      </c>
+      <c r="O13">
+        <v>9.37584288794208E-06</v>
+      </c>
+      <c r="P13">
+        <v>9.381856664395554E-06</v>
+      </c>
+      <c r="Q13">
+        <v>0.0003266578217777778</v>
+      </c>
+      <c r="R13">
+        <v>0.002939920396</v>
+      </c>
+      <c r="S13">
+        <v>3.613684215979632E-08</v>
+      </c>
+      <c r="T13">
+        <v>3.616002075750544E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.181892</v>
+      </c>
+      <c r="I14">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="J14">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>236.563113</v>
+      </c>
+      <c r="N14">
+        <v>709.689339</v>
+      </c>
+      <c r="O14">
+        <v>0.4116770241732021</v>
+      </c>
+      <c r="P14">
+        <v>0.4119410786826471</v>
+      </c>
+      <c r="Q14">
+        <v>14.342979249932</v>
+      </c>
+      <c r="R14">
+        <v>129.086813249388</v>
+      </c>
+      <c r="S14">
+        <v>0.001586706157639868</v>
+      </c>
+      <c r="T14">
+        <v>0.001587723889724699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.181892</v>
+      </c>
+      <c r="I15">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="J15">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="N15">
+        <v>1006.095245</v>
+      </c>
+      <c r="O15">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="P15">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="Q15">
+        <v>20.33340847817111</v>
+      </c>
+      <c r="R15">
+        <v>183.00067630354</v>
+      </c>
+      <c r="S15">
+        <v>0.00224940327082142</v>
+      </c>
+      <c r="T15">
+        <v>0.002250846064667915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.181892</v>
+      </c>
+      <c r="I16">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="J16">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.594178</v>
+      </c>
+      <c r="N16">
+        <v>4.782534</v>
+      </c>
+      <c r="O16">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="P16">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="Q16">
+        <v>0.09665607492533333</v>
+      </c>
+      <c r="R16">
+        <v>0.869904674328</v>
+      </c>
+      <c r="S16">
+        <v>1.069267315980074E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.069953156675589E-05</v>
       </c>
     </row>
   </sheetData>
